--- a/Config/Scene.xlsx
+++ b/Config/Scene.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>场景id</t>
   </si>
@@ -75,10 +75,16 @@
     <t>Shop</t>
   </si>
   <si>
-    <t>烟雨庄</t>
-  </si>
-  <si>
-    <t>龙妹的出生地</t>
+    <t>出生地</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>噜霸天山庄</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>噜霸天的居所</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1032,7 +1038,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1122,13 +1130,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4">
         <v>1002</v>
       </c>
       <c r="E4">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="F4">
         <v>2001</v>
@@ -1145,10 +1153,10 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>1003</v>

--- a/Config/Scene.xlsx
+++ b/Config/Scene.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>场景id</t>
   </si>
@@ -30,15 +30,6 @@
     <t>场景描述</t>
   </si>
   <si>
-    <t>去往</t>
-  </si>
-  <si>
-    <t>距离</t>
-  </si>
-  <si>
-    <t>场景事件</t>
-  </si>
-  <si>
     <t>场景副本</t>
   </si>
   <si>
@@ -60,15 +51,6 @@
     <t>Describe</t>
   </si>
   <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>Distance</t>
-  </si>
-  <si>
-    <t>EventPackage</t>
-  </si>
-  <si>
     <t>Stage</t>
   </si>
   <si>
@@ -79,11 +61,95 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>噜霸天山庄</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>噜霸天的居所</t>
+    <t>坐标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,50</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,30,40,50</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnerRange</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口1坐标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutPos1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口2坐标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutPos2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口3坐标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutPos3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>噜城</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>噜霸天的地盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏兵隔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>噜霸天收藏兵器的地方</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -677,8 +743,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1036,15 +1105,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1055,127 +1127,195 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
+      <c r="H4">
         <v>1002</v>
       </c>
-      <c r="E4">
-        <v>78</v>
-      </c>
-      <c r="F4">
-        <v>2001</v>
-      </c>
-      <c r="G4">
-        <v>1001</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
+      <c r="I4" s="1">
+        <v>100120</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1">
+        <v>105145</v>
+      </c>
+      <c r="E5">
+        <v>10001</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>110130140150</v>
+      </c>
+      <c r="H5">
         <v>1003</v>
       </c>
-      <c r="E5">
-        <v>200</v>
-      </c>
-      <c r="F5">
-        <v>2002</v>
-      </c>
-      <c r="G5">
-        <v>1002</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
+      <c r="I5" s="1">
+        <v>250300</v>
+      </c>
+      <c r="J5">
+        <v>1004</v>
+      </c>
+      <c r="K5" s="1">
+        <v>300600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>10001</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config/Scene.xlsx
+++ b/Config/Scene.xlsx
@@ -73,83 +73,83 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
+    <t>场景范围</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,30,40,50</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnerRange</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口1坐标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutPos1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口2坐标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutPos2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出口3坐标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Out3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutPos3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>噜城</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>噜霸天的地盘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏兵隔</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>噜霸天收藏兵器的地方</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>50,50</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,30,40,50</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>InnerRange</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Out1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口1坐标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutPos1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口2坐标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Out2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutPos2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口3坐标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Out3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutPos3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>噜城</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>噜霸天的地盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏兵隔</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>噜霸天收藏兵器的地方</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -743,11 +743,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1108,7 +1111,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1117,201 +1120,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="M1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1001</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2">
         <v>1002</v>
       </c>
       <c r="I4" s="1">
         <v>100120</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>1002</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="1">
         <v>105145</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>10001</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>2</v>
       </c>
       <c r="G5" s="1">
         <v>110130140150</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>1003</v>
       </c>
       <c r="I5" s="1">
         <v>250300</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <v>1004</v>
       </c>
       <c r="K5" s="1">
         <v>300600</v>
       </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>10001</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Config/Scene.xlsx
+++ b/Config/Scene.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Scene" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>场景id</t>
   </si>
@@ -30,126 +30,70 @@
     <t>场景描述</t>
   </si>
   <si>
+    <t>场景商店</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Describe</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>小山村</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>落后的山区村落，是我出生的地方，偏远闭塞交通不便</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的家</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>小强家</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>村子后山</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>祠堂</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃祠堂</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒井</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒井中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>111,112,113,114,115,116,117,118</t>
+  </si>
+  <si>
     <t>场景副本</t>
-  </si>
-  <si>
-    <t>场景商店</t>
-  </si>
-  <si>
-    <t>int32</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Describe</t>
-  </si>
-  <si>
-    <t>Stage</t>
-  </si>
-  <si>
-    <t>Shop</t>
-  </si>
-  <si>
-    <t>出生地</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>坐标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pos</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景范围</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>20,30,40,50</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>InnerRange</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Out1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口1坐标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutPos1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口2坐标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Out2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutPos2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>出口3坐标</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Out3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>OutPos3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>噜城</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>噜霸天的地盘</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏兵隔</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>噜霸天收藏兵器的地方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,50</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -743,15 +687,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1108,7 +1055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
@@ -1116,220 +1063,156 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>111</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>112</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>113</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>114</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>115</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>116</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>117</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>118</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>28</v>
+      <c r="D11" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>1001</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1002</v>
-      </c>
-      <c r="I4" s="1">
-        <v>100120</v>
-      </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="1">
-        <v>105145</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10001</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>110130140150</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1003</v>
-      </c>
-      <c r="I5" s="1">
-        <v>250300</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1004</v>
-      </c>
-      <c r="K5" s="1">
-        <v>300600</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>10001</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Config/Scene.xlsx
+++ b/Config/Scene.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Scene" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>场景id</t>
   </si>
@@ -94,6 +94,22 @@
   </si>
   <si>
     <t>场景副本</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的地</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destination</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distance</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1055,20 +1071,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="11.5" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="1" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,16 +1092,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1093,16 +1115,22 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1110,108 +1138,130 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>111</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>113</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>114</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>115</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>116</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>117</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>118</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="F11" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
   </sheetData>

--- a/Config/Scene.xlsx
+++ b/Config/Scene.xlsx
@@ -1071,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A12" sqref="A12:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1261,9 +1261,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Scene.xlsx
+++ b/Config/Scene.xlsx
@@ -703,17 +703,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1074,192 +1071,206 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD21"/>
+      <selection activeCell="G4" sqref="G4:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="11.5" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>111</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>112</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="F5" s="3" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>113</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="F6" s="3" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>114</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>115</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="F8" s="3" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>116</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="F9" s="3" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>117</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="F10" s="3" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>118</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="F11" s="3" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="G11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Config/Scene.xlsx
+++ b/Config/Scene.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>场景id</t>
   </si>
@@ -54,45 +54,6 @@
     <t>Shop</t>
   </si>
   <si>
-    <t>小山村</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>落后的山区村落，是我出生的地方，偏远闭塞交通不便</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的家</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>小强家</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>村子后山</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>祠堂</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>废弃祠堂</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>荒井</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>荒井中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>111,112,113,114,115,116,117,118</t>
-  </si>
-  <si>
     <t>场景副本</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -110,6 +71,42 @@
   </si>
   <si>
     <t>Distance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>出生地</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>噜城</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>明相寺</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>山林</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏经阁</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1068,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1089,16 +1086,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -1135,10 +1132,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -1151,126 +1148,75 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>111</v>
+      <c r="A4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>112</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2"/>
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>113</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2"/>
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>114</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2"/>
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>115</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>116</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>117</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>118</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2"/>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
